--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -22,14 +22,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -84,7 +84,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -367,7 +367,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -72,15 +72,6 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="1">
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill/>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-  </x:dxfs>
 </x:styleSheet>
 </file>
 

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -397,6 +397,11 @@
         <x:cfvo type="percent" val="100"/>
         <x:color rgb="FFFF0000"/>
       </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0cf7a109-a037-492e-9fee-4b588b6e219c}</x14:id>
+        </x:ext>
+      </x:extLst>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -404,5 +409,26 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0cf7a109-a037-492e-9fee-4b588b6e219c}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0cf7a109-a037-492e-9fee-4b588b6e219c}</x14:id>
+          <x14:id>{2de8ab59-7976-40e4-8dc9-5ff036098076}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0cf7a109-a037-492e-9fee-4b588b6e219c}">
+          <x14:cfRule type="dataBar" id="{2de8ab59-7976-40e4-8dc9-5ff036098076}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
